--- a/servers/uploads/martrixFXN-TASK0000001532.xlsx
+++ b/servers/uploads/martrixFXN-TASK0000001532.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_834E267C341FF11D5A25ADBFB77FB4A574E96E1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3251C80C-2280-435B-9267-BD902EE2288C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mika Shih\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4157D5E-D7B4-4C35-8039-D2B801F9D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14071,11 +14076,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -14083,14 +14088,24 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -14172,16 +14187,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -14200,9 +14215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14240,7 +14255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -14346,7 +14361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14488,7 +14503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14498,23 +14513,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4">
       <c r="D2" s="5" t="s">
@@ -14522,82 +14537,82 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" ht="38.25">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
@@ -14606,19 +14621,19 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="60.6" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -14771,10 +14786,10 @@
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="60.6" customHeight="1">
       <c r="A27" s="8" t="s">
@@ -16264,10 +16279,10 @@
       <c r="A133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="13"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" spans="1:4" ht="60.6" customHeight="1">
       <c r="A134" s="8" t="s">
@@ -18328,10 +18343,10 @@
       <c r="A284" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B284" s="12" t="s">
+      <c r="B284" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C284" s="13"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285" spans="1:4" ht="60.6" customHeight="1">
       <c r="A285" s="8" t="s">
@@ -20578,10 +20593,10 @@
       <c r="A453" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B453" s="12" t="s">
+      <c r="B453" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C453" s="13"/>
+      <c r="C453" s="11"/>
     </row>
     <row r="454" spans="1:4" ht="60.6" customHeight="1">
       <c r="A454" s="8" t="s">
@@ -20867,10 +20882,10 @@
       <c r="A474" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B474" s="12" t="s">
+      <c r="B474" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="C474" s="13"/>
+      <c r="C474" s="11"/>
     </row>
     <row r="475" spans="1:4" ht="60.6" customHeight="1">
       <c r="A475" s="8" t="s">
@@ -22696,10 +22711,10 @@
       <c r="A605" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B605" s="12" t="s">
+      <c r="B605" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="C605" s="13"/>
+      <c r="C605" s="11"/>
     </row>
     <row r="606" spans="1:4" ht="60.6" customHeight="1">
       <c r="A606" s="8" t="s">
@@ -23517,10 +23532,10 @@
       <c r="A664" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B664" s="12" t="s">
+      <c r="B664" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="C664" s="13"/>
+      <c r="C664" s="11"/>
     </row>
     <row r="665" spans="1:4" ht="60.6" customHeight="1">
       <c r="A665" s="8" t="s">
@@ -24124,10 +24139,10 @@
       <c r="A709" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B709" s="12" t="s">
+      <c r="B709" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="C709" s="13"/>
+      <c r="C709" s="11"/>
     </row>
     <row r="710" spans="1:4" ht="60.6" customHeight="1">
       <c r="A710" s="8" t="s">
@@ -30738,10 +30753,10 @@
       <c r="A1182" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1182" s="12" t="s">
+      <c r="B1182" s="10" t="s">
         <v>1493</v>
       </c>
-      <c r="C1182" s="13"/>
+      <c r="C1182" s="11"/>
     </row>
     <row r="1183" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1183" s="8" t="s">
@@ -32256,10 +32271,10 @@
       <c r="A1291" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1291" s="12" t="s">
+      <c r="B1291" s="10" t="s">
         <v>1628</v>
       </c>
-      <c r="C1291" s="13"/>
+      <c r="C1291" s="11"/>
     </row>
     <row r="1292" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1292" s="8" t="s">
@@ -33186,10 +33201,10 @@
       <c r="A1358" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1358" s="12" t="s">
+      <c r="B1358" s="10" t="s">
         <v>1706</v>
       </c>
-      <c r="C1358" s="13"/>
+      <c r="C1358" s="11"/>
     </row>
     <row r="1359" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1359" s="8" t="s">
@@ -34648,10 +34663,10 @@
       <c r="A1463" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1463" s="12" t="s">
+      <c r="B1463" s="10" t="s">
         <v>1837</v>
       </c>
-      <c r="C1463" s="13"/>
+      <c r="C1463" s="11"/>
     </row>
     <row r="1464" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1464" s="8" t="s">
@@ -35553,10 +35568,10 @@
       <c r="A1528" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1528" s="12" t="s">
+      <c r="B1528" s="10" t="s">
         <v>1907</v>
       </c>
-      <c r="C1528" s="13"/>
+      <c r="C1528" s="11"/>
     </row>
     <row r="1529" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1529" s="8" t="s">
@@ -35702,10 +35717,10 @@
       <c r="A1539" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1539" s="12" t="s">
+      <c r="B1539" s="10" t="s">
         <v>1920</v>
       </c>
-      <c r="C1539" s="13"/>
+      <c r="C1539" s="11"/>
     </row>
     <row r="1540" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1540" s="8" t="s">
@@ -37799,10 +37814,10 @@
       <c r="A1690" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1690" s="12" t="s">
+      <c r="B1690" s="10" t="s">
         <v>2099</v>
       </c>
-      <c r="C1690" s="13"/>
+      <c r="C1690" s="11"/>
     </row>
     <row r="1691" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1691" s="8" t="s">
@@ -38004,72 +38019,73 @@
       <c r="A1705" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1705" s="12" t="s">
+      <c r="B1705" s="10" t="s">
         <v>2115</v>
       </c>
-      <c r="C1705" s="13"/>
+      <c r="C1705" s="11"/>
     </row>
     <row r="1706" spans="1:4">
       <c r="A1706" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1706" s="12" t="s">
+      <c r="B1706" s="10" t="s">
         <v>2116</v>
       </c>
-      <c r="C1706" s="13"/>
+      <c r="C1706" s="11"/>
     </row>
     <row r="1707" spans="1:4">
       <c r="A1707" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1707" s="12" t="s">
+      <c r="B1707" s="10" t="s">
         <v>2117</v>
       </c>
-      <c r="C1707" s="13"/>
+      <c r="C1707" s="11"/>
     </row>
     <row r="1708" spans="1:4">
       <c r="A1708" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1708" s="12" t="s">
+      <c r="B1708" s="10" t="s">
         <v>2118</v>
       </c>
-      <c r="C1708" s="13"/>
+      <c r="C1708" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B474:C474"/>
+    <mergeCell ref="B605:C605"/>
+    <mergeCell ref="B664:C664"/>
+    <mergeCell ref="B709:C709"/>
+    <mergeCell ref="B1182:C1182"/>
+    <mergeCell ref="B1291:C1291"/>
+    <mergeCell ref="B1358:C1358"/>
+    <mergeCell ref="B1463:C1463"/>
+    <mergeCell ref="B1528:C1528"/>
     <mergeCell ref="B1708:C1708"/>
     <mergeCell ref="B1539:C1539"/>
     <mergeCell ref="B1690:C1690"/>
     <mergeCell ref="B1705:C1705"/>
     <mergeCell ref="B1706:C1706"/>
     <mergeCell ref="B1707:C1707"/>
-    <mergeCell ref="B1182:C1182"/>
-    <mergeCell ref="B1291:C1291"/>
-    <mergeCell ref="B1358:C1358"/>
-    <mergeCell ref="B1463:C1463"/>
-    <mergeCell ref="B1528:C1528"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="B474:C474"/>
-    <mergeCell ref="B605:C605"/>
-    <mergeCell ref="B664:C664"/>
-    <mergeCell ref="B709:C709"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/servers/uploads/martrixFXN-TASK0000001532.xlsx
+++ b/servers/uploads/martrixFXN-TASK0000001532.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mika Shih\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4157D5E-D7B4-4C35-8039-D2B801F9D7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_834E267C341FF11D5A25ADBFB77FB4A574E96E1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3251C80C-2280-435B-9267-BD902EE2288C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14076,11 +14071,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -14088,24 +14083,14 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -14187,16 +14172,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -14215,9 +14200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14255,7 +14240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -14361,7 +14346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14503,7 +14488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14513,23 +14498,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1708"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="D2" s="5" t="s">
@@ -14537,82 +14522,82 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
@@ -14621,19 +14606,19 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="60.6" customHeight="1">
       <c r="A14" s="8" t="s">
@@ -14786,10 +14771,10 @@
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="60.6" customHeight="1">
       <c r="A27" s="8" t="s">
@@ -16279,10 +16264,10 @@
       <c r="A133" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="11"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" spans="1:4" ht="60.6" customHeight="1">
       <c r="A134" s="8" t="s">
@@ -18343,10 +18328,10 @@
       <c r="A284" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C284" s="11"/>
+      <c r="C284" s="13"/>
     </row>
     <row r="285" spans="1:4" ht="60.6" customHeight="1">
       <c r="A285" s="8" t="s">
@@ -20593,10 +20578,10 @@
       <c r="A453" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B453" s="10" t="s">
+      <c r="B453" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C453" s="11"/>
+      <c r="C453" s="13"/>
     </row>
     <row r="454" spans="1:4" ht="60.6" customHeight="1">
       <c r="A454" s="8" t="s">
@@ -20882,10 +20867,10 @@
       <c r="A474" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B474" s="10" t="s">
+      <c r="B474" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="C474" s="11"/>
+      <c r="C474" s="13"/>
     </row>
     <row r="475" spans="1:4" ht="60.6" customHeight="1">
       <c r="A475" s="8" t="s">
@@ -22711,10 +22696,10 @@
       <c r="A605" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B605" s="10" t="s">
+      <c r="B605" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="C605" s="11"/>
+      <c r="C605" s="13"/>
     </row>
     <row r="606" spans="1:4" ht="60.6" customHeight="1">
       <c r="A606" s="8" t="s">
@@ -23532,10 +23517,10 @@
       <c r="A664" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B664" s="10" t="s">
+      <c r="B664" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="C664" s="11"/>
+      <c r="C664" s="13"/>
     </row>
     <row r="665" spans="1:4" ht="60.6" customHeight="1">
       <c r="A665" s="8" t="s">
@@ -24139,10 +24124,10 @@
       <c r="A709" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B709" s="10" t="s">
+      <c r="B709" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="C709" s="11"/>
+      <c r="C709" s="13"/>
     </row>
     <row r="710" spans="1:4" ht="60.6" customHeight="1">
       <c r="A710" s="8" t="s">
@@ -30753,10 +30738,10 @@
       <c r="A1182" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1182" s="10" t="s">
+      <c r="B1182" s="12" t="s">
         <v>1493</v>
       </c>
-      <c r="C1182" s="11"/>
+      <c r="C1182" s="13"/>
     </row>
     <row r="1183" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1183" s="8" t="s">
@@ -32271,10 +32256,10 @@
       <c r="A1291" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1291" s="10" t="s">
+      <c r="B1291" s="12" t="s">
         <v>1628</v>
       </c>
-      <c r="C1291" s="11"/>
+      <c r="C1291" s="13"/>
     </row>
     <row r="1292" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1292" s="8" t="s">
@@ -33201,10 +33186,10 @@
       <c r="A1358" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1358" s="10" t="s">
+      <c r="B1358" s="12" t="s">
         <v>1706</v>
       </c>
-      <c r="C1358" s="11"/>
+      <c r="C1358" s="13"/>
     </row>
     <row r="1359" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1359" s="8" t="s">
@@ -34663,10 +34648,10 @@
       <c r="A1463" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1463" s="10" t="s">
+      <c r="B1463" s="12" t="s">
         <v>1837</v>
       </c>
-      <c r="C1463" s="11"/>
+      <c r="C1463" s="13"/>
     </row>
     <row r="1464" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1464" s="8" t="s">
@@ -35568,10 +35553,10 @@
       <c r="A1528" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1528" s="10" t="s">
+      <c r="B1528" s="12" t="s">
         <v>1907</v>
       </c>
-      <c r="C1528" s="11"/>
+      <c r="C1528" s="13"/>
     </row>
     <row r="1529" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1529" s="8" t="s">
@@ -35717,10 +35702,10 @@
       <c r="A1539" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1539" s="10" t="s">
+      <c r="B1539" s="12" t="s">
         <v>1920</v>
       </c>
-      <c r="C1539" s="11"/>
+      <c r="C1539" s="13"/>
     </row>
     <row r="1540" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1540" s="8" t="s">
@@ -37814,10 +37799,10 @@
       <c r="A1690" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1690" s="10" t="s">
+      <c r="B1690" s="12" t="s">
         <v>2099</v>
       </c>
-      <c r="C1690" s="11"/>
+      <c r="C1690" s="13"/>
     </row>
     <row r="1691" spans="1:4" ht="60.6" customHeight="1">
       <c r="A1691" s="8" t="s">
@@ -38019,73 +38004,72 @@
       <c r="A1705" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1705" s="10" t="s">
+      <c r="B1705" s="12" t="s">
         <v>2115</v>
       </c>
-      <c r="C1705" s="11"/>
+      <c r="C1705" s="13"/>
     </row>
     <row r="1706" spans="1:4">
       <c r="A1706" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1706" s="10" t="s">
+      <c r="B1706" s="12" t="s">
         <v>2116</v>
       </c>
-      <c r="C1706" s="11"/>
+      <c r="C1706" s="13"/>
     </row>
     <row r="1707" spans="1:4">
       <c r="A1707" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1707" s="10" t="s">
+      <c r="B1707" s="12" t="s">
         <v>2117</v>
       </c>
-      <c r="C1707" s="11"/>
+      <c r="C1707" s="13"/>
     </row>
     <row r="1708" spans="1:4">
       <c r="A1708" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1708" s="10" t="s">
+      <c r="B1708" s="12" t="s">
         <v>2118</v>
       </c>
-      <c r="C1708" s="11"/>
+      <c r="C1708" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="B474:C474"/>
-    <mergeCell ref="B605:C605"/>
-    <mergeCell ref="B664:C664"/>
-    <mergeCell ref="B709:C709"/>
-    <mergeCell ref="B1182:C1182"/>
-    <mergeCell ref="B1291:C1291"/>
-    <mergeCell ref="B1358:C1358"/>
-    <mergeCell ref="B1463:C1463"/>
-    <mergeCell ref="B1528:C1528"/>
     <mergeCell ref="B1708:C1708"/>
     <mergeCell ref="B1539:C1539"/>
     <mergeCell ref="B1690:C1690"/>
     <mergeCell ref="B1705:C1705"/>
     <mergeCell ref="B1706:C1706"/>
     <mergeCell ref="B1707:C1707"/>
+    <mergeCell ref="B1182:C1182"/>
+    <mergeCell ref="B1291:C1291"/>
+    <mergeCell ref="B1358:C1358"/>
+    <mergeCell ref="B1463:C1463"/>
+    <mergeCell ref="B1528:C1528"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B474:C474"/>
+    <mergeCell ref="B605:C605"/>
+    <mergeCell ref="B664:C664"/>
+    <mergeCell ref="B709:C709"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>